--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="游戏物品表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>物品编号</t>
   </si>
@@ -30,7 +28,7 @@
     <t>能否绑定</t>
   </si>
   <si>
-    <t>123124546546</t>
+    <t>类型</t>
   </si>
   <si>
     <t>屠龙宝刀</t>
@@ -41,16 +39,23 @@
   <si>
     <t>无敌</t>
   </si>
+  <si>
+    <t>红药</t>
+  </si>
+  <si>
+    <t>蓝瓶</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,6 +63,50 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -69,6 +118,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -93,28 +157,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -122,42 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -169,30 +198,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,12 +219,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,169 +309,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +410,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,6 +452,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -451,16 +486,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,36 +510,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,141 +530,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,68 +1015,118 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>224</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2424</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5858</v>
       </c>
       <c r="D4">
-        <v>585</v>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1079,38 +1134,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="16535" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="游戏物品表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>物品编号</t>
   </si>
@@ -28,19 +28,43 @@
     <t>能否绑定</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>部位</t>
   </si>
   <si>
     <t>屠龙宝刀</t>
   </si>
   <si>
+    <t>[{"5":400},{"7":200}]</t>
+  </si>
+  <si>
+    <t>双手</t>
+  </si>
+  <si>
     <t>巨龙之魂</t>
   </si>
   <si>
+    <t>[{"5":400},{"6":600}]</t>
+  </si>
+  <si>
+    <t>单手</t>
+  </si>
+  <si>
     <t>无敌</t>
   </si>
   <si>
+    <t>坐骑</t>
+  </si>
+  <si>
     <t>红药</t>
+  </si>
+  <si>
+    <t>背包</t>
   </si>
   <si>
     <t>蓝瓶</t>
@@ -51,11 +75,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,13 +91,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -82,7 +99,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +121,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,7 +173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,21 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -198,13 +229,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,45 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,7 +456,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +466,56 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +534,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,26 +1039,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="30.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1043,16 +1070,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>1001</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1060,16 +1093,22 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>224</v>
+        <v>1005</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1077,16 +1116,22 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>5858</v>
+        <v>1005</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1094,39 +1139,48 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>106</v>
+        <v>1005</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>105</v>
+        <v>1005</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16535" windowHeight="8460"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="游戏物品表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>物品编号</t>
   </si>
@@ -40,7 +40,7 @@
     <t>屠龙宝刀</t>
   </si>
   <si>
-    <t>[{"5":400},{"7":200}]</t>
+    <t>[{"id":5,"value":400},{"id":7,"value":200}]</t>
   </si>
   <si>
     <t>双手</t>
@@ -49,7 +49,7 @@
     <t>巨龙之魂</t>
   </si>
   <si>
-    <t>[{"5":400},{"6":600}]</t>
+    <t>[{"id":5,"value":400},{"id":6,"value":600}]</t>
   </si>
   <si>
     <t>单手</t>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>蓝瓶</t>
+  </si>
+  <si>
+    <t>银鳞胸甲</t>
+  </si>
+  <si>
+    <t>[{"id":3","value":999},{"id":7,"value":999}]</t>
+  </si>
+  <si>
+    <t>上身</t>
   </si>
 </sst>
 </file>
@@ -75,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -91,15 +100,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,21 +137,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,14 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,76 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,8 +473,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +506,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -499,41 +543,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,13 +1048,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
@@ -1183,6 +1192,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -73,7 +73,7 @@
     <t>银鳞胸甲</t>
   </si>
   <si>
-    <t>[{"id":3","value":999},{"id":7,"value":999}]</t>
+    <t>[{"id":3,"value":999},{"id":7,"value":999}]</t>
   </si>
   <si>
     <t>上身</t>
@@ -85,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -100,14 +100,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,7 +136,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,39 +164,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,22 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -229,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +252,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,163 +390,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +443,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,41 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,8 +512,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>1005</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>1005</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>1005</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>1005</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>1006</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mmorpg\gameserver\src\main\resources\gameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF41C8A-906B-445B-B158-B4EFE453A694}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="游戏物品表" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>物品编号</t>
   </si>
@@ -46,6 +40,9 @@
     <t>屠龙宝刀</t>
   </si>
   <si>
+    <t>[{"id":5,"value":400},{"id":3,"value":200}]</t>
+  </si>
+  <si>
     <t>双手</t>
   </si>
   <si>
@@ -76,24 +73,27 @@
     <t>银鳞胸甲</t>
   </si>
   <si>
-    <t>[{"id":3,"value":999},{"id":7,"value":999}]</t>
+    <t>[{"id":3,"value":999},{"id":3,"value":999}]</t>
   </si>
   <si>
     <t>上身</t>
   </si>
   <si>
-    <t>[{"id":5,"value":400},{"id":7,"value":200}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>霜之哀刃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,21 +102,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -124,9 +448,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -134,21 +700,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,28 +1045,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="30.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -496,18 +1106,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -519,18 +1129,18 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -542,15 +1152,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>106</v>
@@ -562,15 +1172,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>105</v>
@@ -582,15 +1192,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>106</v>
@@ -602,15 +1212,35 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mmorpg\gameserver\src\main\resources\gameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E54DD7-FAB1-470A-A433-5A6FBAF6EF32}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="游戏物品表" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>物品编号</t>
   </si>
@@ -43,15 +37,21 @@
     <t>部位</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>屠龙宝刀</t>
   </si>
   <si>
-    <t>[{"id":5,"value":400},{"id":3,"value":200}]</t>
+    <t>[{"id":5,"value":400},{"id":3,"value":200},{"id":4,"value":666}]</t>
   </si>
   <si>
     <t>双手</t>
   </si>
   <si>
+    <t>屠龙宝刀，点击就送。</t>
+  </si>
+  <si>
     <t>巨龙之魂</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>单手</t>
   </si>
   <si>
+    <t>既是五大巨龙之力，亦是恶魔之魂。</t>
+  </si>
+  <si>
     <t>无敌</t>
   </si>
   <si>
@@ -85,34 +88,24 @@
     <t>上身</t>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屠龙宝刀，点击就送。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既是五大巨龙之力，亦是恶魔之魂。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>霜之哀刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>霜之哀刃饿了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,29 +114,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,9 +460,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -164,21 +715,65 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,28 +1060,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="53.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,15 +1104,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -529,21 +1124,21 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -555,21 +1150,21 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -581,15 +1176,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>106</v>
@@ -601,15 +1196,15 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>105</v>
@@ -621,15 +1216,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>106</v>
@@ -641,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -664,15 +1259,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>物品编号</t>
   </si>
@@ -55,10 +55,7 @@
     <t>巨龙之魂</t>
   </si>
   <si>
-    <t>[{"id":5,"value":400},{"id":6,"value":600}]</t>
-  </si>
-  <si>
-    <t>单手</t>
+    <t>[{"id":5,"value":400},{"id":6,"value":600},{"id":4,"value":777}]</t>
   </si>
   <si>
     <t>既是五大巨龙之力，亦是恶魔之魂。</t>
@@ -82,16 +79,25 @@
     <t>银鳞胸甲</t>
   </si>
   <si>
-    <t>[{"id":3,"value":999},{"id":3,"value":999}]</t>
+    <t>[{"id":3,"value":999},{"id":5,"value":999},{"id":4,"value":999}]</t>
   </si>
   <si>
     <t>上身</t>
   </si>
   <si>
-    <t>霜之哀刃</t>
-  </si>
-  <si>
-    <t>霜之哀刃饿了！</t>
+    <t>霜之哀伤</t>
+  </si>
+  <si>
+    <t>霜之哀伤饿了！</t>
+  </si>
+  <si>
+    <t>暴风城披风</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":999},{"id":6,"value":666}]</t>
+  </si>
+  <si>
+    <t>披风</t>
   </si>
 </sst>
 </file>
@@ -101,8 +107,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -121,13 +127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -153,29 +152,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,17 +188,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,17 +227,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,175 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +516,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -526,32 +558,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -566,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,31 +584,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,100 +623,94 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,19 +1072,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="53.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="75.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1153,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1164,19 +1170,19 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1184,7 +1190,7 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>106</v>
@@ -1196,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1204,7 +1210,7 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>105</v>
@@ -1216,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1224,7 +1230,7 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>106</v>
@@ -1236,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1247,7 +1253,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>1007</v>
@@ -1262,7 +1268,27 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>物品编号</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>部位</t>
+  </si>
+  <si>
+    <t>价格</t>
   </si>
   <si>
     <t>描述</t>
@@ -105,11 +108,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,7 +124,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,15 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,89 +266,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,67 +276,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,115 +432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,30 +490,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,11 +511,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,22 +1075,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="75.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="23.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,13 +1116,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1130,21 +1137,24 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
         <v>11</v>
       </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1156,21 +1166,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1182,15 +1195,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>106</v>
@@ -1202,15 +1218,18 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>105</v>
@@ -1222,15 +1241,18 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>106</v>
@@ -1242,18 +1264,21 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>1007</v>
@@ -1265,18 +1290,21 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>106</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1285,10 +1313,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -108,11 +108,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,6 +124,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,51 +146,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +230,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,65 +245,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,61 +276,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,121 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +496,50 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,58 +562,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,8 +1077,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gonefuture</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1 为装备
+2 不可堆叠的wupin
+3 可堆叠的物品</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>物品编号</t>
   </si>
@@ -70,15 +94,24 @@
     <t>坐骑</t>
   </si>
   <si>
+    <t>巫妖王阿尔萨斯的坐骑</t>
+  </si>
+  <si>
     <t>红药</t>
   </si>
   <si>
     <t>背包</t>
   </si>
   <si>
+    <t>加hp</t>
+  </si>
+  <si>
     <t>蓝瓶</t>
   </si>
   <si>
+    <t>加mp</t>
+  </si>
+  <si>
     <t>银鳞胸甲</t>
   </si>
   <si>
@@ -88,6 +121,9 @@
     <t>上身</t>
   </si>
   <si>
+    <t>经典护甲</t>
+  </si>
+  <si>
     <t>霜之哀伤</t>
   </si>
   <si>
@@ -101,6 +137,15 @@
   </si>
   <si>
     <t>披风</t>
+  </si>
+  <si>
+    <t>为暴风城而战。</t>
+  </si>
+  <si>
+    <t>松鼠小宠物</t>
+  </si>
+  <si>
+    <t>可以召唤一只可爱的小松鼠！</t>
   </si>
 </sst>
 </file>
@@ -109,10 +154,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,6 +175,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -138,23 +197,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,84 +273,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +321,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,37 +405,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,127 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +512,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,41 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +563,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -559,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,130 +635,130 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1178,7 +1223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -1200,13 +1245,16 @@
       <c r="H4">
         <v>102</v>
       </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>106</v>
@@ -1215,21 +1263,24 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>103</v>
       </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>105</v>
@@ -1238,21 +1289,24 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>104</v>
       </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>106</v>
@@ -1264,13 +1318,16 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1278,7 +1335,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>1007</v>
@@ -1296,15 +1353,15 @@
         <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1313,18 +1370,42 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>9999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -153,11 +153,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,6 +169,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -176,6 +190,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -183,15 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,21 +227,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,77 +311,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,11 +515,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +573,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -562,56 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,145 +620,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1382,7 +1382,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>1009</v>
+      </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -70,7 +70,7 @@
     <t>屠龙宝刀</t>
   </si>
   <si>
-    <t>[{"id":5,"value":400},{"id":3,"value":200},{"id":4,"value":666}]</t>
+    <t>[{"id":5,"value":400},{"id":3,"value":200},{"id":4,"value":200}]</t>
   </si>
   <si>
     <t>双手</t>
@@ -82,7 +82,7 @@
     <t>巨龙之魂</t>
   </si>
   <si>
-    <t>[{"id":5,"value":400},{"id":6,"value":600},{"id":4,"value":777}]</t>
+    <t>[{"id":5,"value":400},{"id":6,"value":200},{"id":4,"value":200}]</t>
   </si>
   <si>
     <t>既是五大巨龙之力，亦是恶魔之魂。</t>
@@ -115,7 +115,7 @@
     <t>银鳞胸甲</t>
   </si>
   <si>
-    <t>[{"id":3,"value":999},{"id":5,"value":999},{"id":4,"value":999}]</t>
+    <t>[{"id":3,"value":200},{"id":5,"value":200},{"id":4,"value":200}]</t>
   </si>
   <si>
     <t>上身</t>
@@ -133,7 +133,7 @@
     <t>暴风城披风</t>
   </si>
   <si>
-    <t>[{"id":3,"value":999},{"id":6,"value":666}]</t>
+    <t>[{"id":3,"value":200},{"id":6,"value":200}]</t>
   </si>
   <si>
     <t>披风</t>
@@ -154,8 +154,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -169,12 +169,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -190,7 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +267,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,91 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -321,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,30 +512,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,11 +545,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +582,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +603,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -841,7 +841,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -118,7 +118,7 @@
     <t>[{"id":3,"value":200},{"id":5,"value":200},{"id":4,"value":200}]</t>
   </si>
   <si>
-    <t>上身</t>
+    <t>胸部</t>
   </si>
   <si>
     <t>经典护甲</t>
@@ -154,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -168,6 +168,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -175,18 +190,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,8 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,94 +266,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,6 +289,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,32 +515,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,29 +552,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,11 +589,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,19 +632,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,112 +653,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/gameserver/src/main/resources/gameData/things.xlsx
+++ b/gameserver/src/main/resources/gameData/things.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21960" windowHeight="6264"/>
   </bookViews>
   <sheets>
     <sheet name="游戏物品表" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>触发效果</t>
   </si>
   <si>
-    <t>能否绑定</t>
+    <t>装备等级</t>
   </si>
   <si>
     <t>种类</t>
@@ -153,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -168,23 +168,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,16 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,23 +259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,21 +275,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,22 +553,31 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,26 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,16 +632,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,13 +650,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,97 +668,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>106</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1286,7 +1286,7 @@
         <v>105</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1312,7 +1312,7 @@
         <v>106</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>1007</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1</v>
